--- a/OptimalizationLabs1/proj2_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj2_Izworski_Jarek_Klimczyk.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EABA21-D0D3-47C4-8FF0-B13FF0445D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F5705-A51F-4BB5-A30A-C874FCDEF14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Liczba wywołań funkcji celu</t>
   </si>
@@ -484,21 +484,6 @@
   </si>
   <si>
     <t>8.87978e-06</t>
-  </si>
-  <si>
-    <t>0.091625</t>
-  </si>
-  <si>
-    <t>-0.018641</t>
-  </si>
-  <si>
-    <t>0.000625</t>
-  </si>
-  <si>
-    <t>0.000359</t>
-  </si>
-  <si>
-    <t>-0.000375</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1050,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,6 +1123,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,34 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -9752,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9764,71 +9749,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="43" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="61" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="53">
         <v>1E-3</v>
       </c>
       <c r="B3" s="5">
@@ -9843,7 +9828,7 @@
       <c r="E3" s="20">
         <v>1.28088E-4</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="46">
         <v>2.15321E-5</v>
       </c>
       <c r="G3" s="16">
@@ -9874,7 +9859,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -9918,7 +9903,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -9962,7 +9947,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -10006,7 +9991,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -10050,7 +10035,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -10094,7 +10079,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -10138,7 +10123,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -10182,7 +10167,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -10226,7 +10211,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -10270,7 +10255,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -10314,7 +10299,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -10358,7 +10343,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -10402,7 +10387,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -10446,7 +10431,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -10490,7 +10475,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -10534,7 +10519,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -10560,7 +10545,7 @@
         <f t="shared" si="0"/>
         <v>NIE</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="43">
         <v>-1.22032E-5</v>
       </c>
       <c r="K19" s="1">
@@ -10578,7 +10563,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -10622,7 +10607,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -10666,7 +10651,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -10710,7 +10695,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -10754,7 +10739,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -10798,7 +10783,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -10842,7 +10827,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -10871,10 +10856,10 @@
       <c r="J26" s="14">
         <v>1.08836E-4</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="41">
         <v>9.2459999999999992E-6</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="41">
         <v>3.7990400000000001E-7</v>
       </c>
       <c r="M26" s="1">
@@ -10886,7 +10871,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -10930,7 +10915,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -10974,7 +10959,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -11018,7 +11003,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -11062,7 +11047,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -11106,7 +11091,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -11150,7 +11135,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -11194,7 +11179,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -11238,7 +11223,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -11282,7 +11267,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -11326,7 +11311,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -11370,7 +11355,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -11414,7 +11399,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -11458,7 +11443,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -11484,7 +11469,7 @@
         <f t="shared" si="0"/>
         <v>NIE</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="43">
         <v>9.0881300000000007E-6</v>
       </c>
       <c r="K40" s="1">
@@ -11502,7 +11487,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -11546,7 +11531,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -11590,7 +11575,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -11634,7 +11619,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -11678,7 +11663,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -11722,7 +11707,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -11766,7 +11751,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -11810,7 +11795,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -11854,7 +11839,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -11898,7 +11883,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -11942,7 +11927,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -11986,7 +11971,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -12018,7 +12003,7 @@
       <c r="K52" s="1">
         <v>-6.3498600000000004E-4</v>
       </c>
-      <c r="L52" s="64">
+      <c r="L52" s="41">
         <v>3.6442500000000002E-5</v>
       </c>
       <c r="M52" s="1">
@@ -12030,7 +12015,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -12074,7 +12059,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -12103,7 +12088,7 @@
       <c r="J54" s="14">
         <v>-0.77477799999999997</v>
       </c>
-      <c r="K54" s="64">
+      <c r="K54" s="41">
         <v>-1.5316E-5</v>
       </c>
       <c r="L54" s="1">
@@ -12118,7 +12103,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -12162,7 +12147,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -12206,7 +12191,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -12250,7 +12235,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -12260,7 +12245,7 @@
       <c r="D58" s="12">
         <v>-0.61060300000000001</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="43">
         <v>8.7627399999999994E-5</v>
       </c>
       <c r="F58" s="1">
@@ -12294,7 +12279,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -12338,7 +12323,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -12370,7 +12355,7 @@
       <c r="K60" s="1">
         <v>-1.0893E-4</v>
       </c>
-      <c r="L60" s="64">
+      <c r="L60" s="41">
         <v>2.3816199999999999E-6</v>
       </c>
       <c r="M60" s="1">
@@ -12382,7 +12367,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -12426,7 +12411,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -12452,7 +12437,7 @@
         <f t="shared" si="0"/>
         <v>NIE</v>
       </c>
-      <c r="J62" s="66">
+      <c r="J62" s="43">
         <v>1.9199600000000002E-5</v>
       </c>
       <c r="K62" s="1">
@@ -12470,7 +12455,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -12514,7 +12499,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -12558,7 +12543,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -12568,7 +12553,7 @@
       <c r="D65" s="12">
         <v>-0.83962899999999996</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="43">
         <v>-2.4581799999999999E-5</v>
       </c>
       <c r="F65" s="1">
@@ -12602,7 +12587,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -12646,7 +12631,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -12656,10 +12641,10 @@
       <c r="D67" s="12">
         <v>-0.18108299999999999</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="43">
         <v>8.5025399999999994E-5</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="41">
         <v>-8.2738799999999995E-5</v>
       </c>
       <c r="G67" s="1">
@@ -12690,7 +12675,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -12703,7 +12688,7 @@
       <c r="E68" s="14">
         <v>-0.77475899999999998</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="41">
         <v>3.2325600000000001E-5</v>
       </c>
       <c r="G68" s="1">
@@ -12734,7 +12719,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -12744,7 +12729,7 @@
       <c r="D69" s="12">
         <v>-2.7337299999999998E-2</v>
       </c>
-      <c r="E69" s="66">
+      <c r="E69" s="43">
         <v>-7.6231799999999997E-5</v>
       </c>
       <c r="F69" s="1">
@@ -12778,7 +12763,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -12822,7 +12807,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -12866,7 +12851,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -12910,7 +12895,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -12936,13 +12921,13 @@
         <f t="shared" si="2"/>
         <v>TAK</v>
       </c>
-      <c r="J73" s="66">
+      <c r="J73" s="43">
         <v>9.3116599999999999E-6</v>
       </c>
-      <c r="K73" s="64">
+      <c r="K73" s="41">
         <v>-8.7517499999999997E-6</v>
       </c>
-      <c r="L73" s="64">
+      <c r="L73" s="41">
         <v>5.19988E-9</v>
       </c>
       <c r="M73" s="1">
@@ -12954,7 +12939,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -12998,7 +12983,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -13042,7 +13027,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -13074,7 +13059,7 @@
       <c r="K76" s="1">
         <v>4.9315999999999997E-4</v>
       </c>
-      <c r="L76" s="64">
+      <c r="L76" s="41">
         <v>1.38648E-5</v>
       </c>
       <c r="M76" s="1">
@@ -13086,7 +13071,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -13130,7 +13115,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -13174,7 +13159,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -13218,7 +13203,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -13262,7 +13247,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -13306,7 +13291,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -13350,7 +13335,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -13394,7 +13379,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -13438,7 +13423,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -13448,7 +13433,7 @@
       <c r="D85" s="12">
         <v>0.56057500000000005</v>
       </c>
-      <c r="E85" s="66">
+      <c r="E85" s="43">
         <v>5.3684599999999998E-5</v>
       </c>
       <c r="F85" s="1">
@@ -13482,7 +13467,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -13526,7 +13511,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -13570,7 +13555,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -13596,7 +13581,7 @@
         <f t="shared" si="2"/>
         <v>NIE</v>
       </c>
-      <c r="J88" s="66">
+      <c r="J88" s="43">
         <v>-5.6167800000000001E-5</v>
       </c>
       <c r="K88" s="1">
@@ -13614,7 +13599,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -13658,7 +13643,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -13668,7 +13653,7 @@
       <c r="D90" s="12">
         <v>-0.60736400000000001</v>
       </c>
-      <c r="E90" s="66">
+      <c r="E90" s="43">
         <v>2.2835400000000002E-5</v>
       </c>
       <c r="F90" s="1">
@@ -13702,7 +13687,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -13728,7 +13713,7 @@
         <f t="shared" si="2"/>
         <v>NIE</v>
       </c>
-      <c r="J91" s="66">
+      <c r="J91" s="43">
         <v>7.1675300000000001E-5</v>
       </c>
       <c r="K91" s="1">
@@ -13746,7 +13731,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -13790,7 +13775,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -13834,7 +13819,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -13878,7 +13863,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -13922,7 +13907,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -13966,7 +13951,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -14010,7 +13995,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -14054,7 +14039,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -14098,7 +14083,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -14142,7 +14127,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -14168,7 +14153,7 @@
         <f t="shared" si="2"/>
         <v>NIE</v>
       </c>
-      <c r="J101" s="66">
+      <c r="J101" s="43">
         <v>5.2521699999999999E-6</v>
       </c>
       <c r="K101" s="1">
@@ -14186,7 +14171,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -14230,7 +14215,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="38">
+      <c r="A103" s="53">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B103" s="5">
@@ -14276,7 +14261,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -14289,7 +14274,7 @@
       <c r="E104" s="14">
         <v>0.77435799999999999</v>
       </c>
-      <c r="F104" s="64">
+      <c r="F104" s="41">
         <v>8.9390399999999997E-5</v>
       </c>
       <c r="G104" s="1">
@@ -14320,7 +14305,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -14364,7 +14349,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -14408,7 +14393,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -14452,7 +14437,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -14496,7 +14481,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -14540,7 +14525,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -14584,7 +14569,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -14628,7 +14613,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -14672,7 +14657,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -14716,7 +14701,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -14760,7 +14745,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -14804,7 +14789,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -14848,7 +14833,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -14892,7 +14877,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -14936,7 +14921,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -14962,10 +14947,10 @@
         <f t="shared" si="2"/>
         <v>TAK</v>
       </c>
-      <c r="J119" s="66">
+      <c r="J119" s="43">
         <v>-4.9083599999999999E-5</v>
       </c>
-      <c r="K119" s="64">
+      <c r="K119" s="41">
         <v>5.9120699999999998E-5</v>
       </c>
       <c r="L119" s="1">
@@ -14980,7 +14965,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -15024,7 +15009,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -15034,7 +15019,7 @@
       <c r="D121" s="12">
         <v>0.67217199999999999</v>
       </c>
-      <c r="E121" s="66">
+      <c r="E121" s="43">
         <v>1.66078E-5</v>
       </c>
       <c r="F121" s="1">
@@ -15068,7 +15053,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -15078,7 +15063,7 @@
       <c r="D122" s="12">
         <v>-0.66660299999999995</v>
       </c>
-      <c r="E122" s="66">
+      <c r="E122" s="43">
         <v>-9.9415700000000004E-5</v>
       </c>
       <c r="F122" s="1">
@@ -15112,7 +15097,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -15156,7 +15141,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -15200,7 +15185,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -15244,7 +15229,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -15254,7 +15239,7 @@
       <c r="D126" s="12">
         <v>9.9144700000000002E-2</v>
       </c>
-      <c r="E126" s="66">
+      <c r="E126" s="43">
         <v>5.7203400000000002E-5</v>
       </c>
       <c r="F126" s="1">
@@ -15288,7 +15273,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -15332,7 +15317,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -15376,7 +15361,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -15389,7 +15374,7 @@
       <c r="E129" s="14">
         <v>-3.86754E-4</v>
       </c>
-      <c r="F129" s="64">
+      <c r="F129" s="41">
         <v>1.49187E-5</v>
       </c>
       <c r="G129" s="1">
@@ -15420,7 +15405,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -15464,7 +15449,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -15508,7 +15493,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -15552,7 +15537,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -15596,7 +15581,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -15640,7 +15625,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -15684,7 +15669,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -15728,7 +15713,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -15772,7 +15757,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -15801,7 +15786,7 @@
       <c r="J138" s="14">
         <v>-2.24618E-3</v>
       </c>
-      <c r="K138" s="64">
+      <c r="K138" s="41">
         <v>9.6827100000000007E-5</v>
       </c>
       <c r="L138" s="1">
@@ -15816,7 +15801,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -15860,7 +15845,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -15870,7 +15855,7 @@
       <c r="D140" s="12">
         <v>0.75808399999999998</v>
       </c>
-      <c r="E140" s="66">
+      <c r="E140" s="43">
         <v>4.3854799999999999E-5</v>
       </c>
       <c r="F140" s="1">
@@ -15904,7 +15889,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -15930,7 +15915,7 @@
         <f t="shared" si="4"/>
         <v>NIE</v>
       </c>
-      <c r="J141" s="66">
+      <c r="J141" s="43">
         <v>-1.9074499999999998E-5</v>
       </c>
       <c r="K141" s="1">
@@ -15948,7 +15933,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -15992,7 +15977,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -16036,7 +16021,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -16080,7 +16065,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -16124,7 +16109,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -16168,7 +16153,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -16212,7 +16197,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -16256,7 +16241,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -16282,7 +16267,7 @@
         <f t="shared" si="4"/>
         <v>NIE</v>
       </c>
-      <c r="J149" s="66">
+      <c r="J149" s="43">
         <v>2.2642499999999999E-5</v>
       </c>
       <c r="K149" s="1">
@@ -16300,7 +16285,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -16344,7 +16329,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -16388,7 +16373,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -16414,7 +16399,7 @@
         <f t="shared" si="4"/>
         <v>NIE</v>
       </c>
-      <c r="J152" s="66">
+      <c r="J152" s="43">
         <v>-1.30267E-5</v>
       </c>
       <c r="K152" s="1">
@@ -16432,7 +16417,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -16442,7 +16427,7 @@
       <c r="D153" s="12">
         <v>-0.57931900000000003</v>
       </c>
-      <c r="E153" s="66">
+      <c r="E153" s="43">
         <v>1.1182099999999999E-5</v>
       </c>
       <c r="F153" s="1">
@@ -16476,7 +16461,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -16520,7 +16505,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -16564,7 +16549,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -16608,7 +16593,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -16652,7 +16637,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -16696,7 +16681,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -16740,7 +16725,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -16784,7 +16769,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -16828,7 +16813,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -16872,7 +16857,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -16916,7 +16901,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -16926,7 +16911,7 @@
       <c r="D164" s="12">
         <v>-0.83917399999999998</v>
       </c>
-      <c r="E164" s="66">
+      <c r="E164" s="43">
         <v>-8.8480300000000001E-5</v>
       </c>
       <c r="F164" s="1">
@@ -16960,7 +16945,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -17004,7 +16989,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -17048,7 +17033,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -17074,7 +17059,7 @@
         <f t="shared" si="4"/>
         <v>NIE</v>
       </c>
-      <c r="J167" s="66">
+      <c r="J167" s="43">
         <v>-1.8649500000000002E-5</v>
       </c>
       <c r="K167" s="1">
@@ -17092,7 +17077,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -17136,7 +17121,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
+      <c r="A169" s="54"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -17149,7 +17134,7 @@
       <c r="E169" s="14">
         <v>-0.775034</v>
       </c>
-      <c r="F169" s="64">
+      <c r="F169" s="41">
         <v>6.2568400000000002E-5</v>
       </c>
       <c r="G169" s="1">
@@ -17180,7 +17165,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -17224,7 +17209,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -17268,7 +17253,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -17312,7 +17297,7 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -17356,7 +17341,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -17400,7 +17385,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -17426,7 +17411,7 @@
         <f t="shared" si="4"/>
         <v>TAK</v>
       </c>
-      <c r="J175" s="66">
+      <c r="J175" s="43">
         <v>-9.40861E-5</v>
       </c>
       <c r="K175" s="1">
@@ -17444,7 +17429,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -17488,7 +17473,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -17532,7 +17517,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -17576,7 +17561,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -17605,7 +17590,7 @@
       <c r="J179" s="14">
         <v>0.77476199999999995</v>
       </c>
-      <c r="K179" s="64">
+      <c r="K179" s="41">
         <v>9.6802299999999996E-6</v>
       </c>
       <c r="L179" s="1">
@@ -17620,7 +17605,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -17630,7 +17615,7 @@
       <c r="D180" s="12">
         <v>0.84731800000000002</v>
       </c>
-      <c r="E180" s="66">
+      <c r="E180" s="43">
         <v>8.2800999999999995E-5</v>
       </c>
       <c r="F180" s="1">
@@ -17664,7 +17649,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -17708,7 +17693,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -17752,7 +17737,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -17762,7 +17747,7 @@
       <c r="D183" s="12">
         <v>-0.74431999999999998</v>
       </c>
-      <c r="E183" s="66">
+      <c r="E183" s="43">
         <v>-8.3435200000000004E-5</v>
       </c>
       <c r="F183" s="1">
@@ -17796,7 +17781,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -17840,7 +17825,7 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -17884,7 +17869,7 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -17928,7 +17913,7 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -17972,7 +17957,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -18016,7 +18001,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -18060,7 +18045,7 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -18104,7 +18089,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -18133,7 +18118,7 @@
       <c r="J191" s="14">
         <v>-0.79145500000000002</v>
       </c>
-      <c r="K191" s="64">
+      <c r="K191" s="41">
         <v>-5.6065399999999999E-6</v>
       </c>
       <c r="L191" s="1">
@@ -18148,7 +18133,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -18192,7 +18177,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -18236,7 +18221,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -18280,7 +18265,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -18324,7 +18309,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -18350,7 +18335,7 @@
         <f t="shared" ref="I196:I259" si="6">IF(G196&lt;0.0001,"TAK","NIE")</f>
         <v>NIE</v>
       </c>
-      <c r="J196" s="66">
+      <c r="J196" s="43">
         <v>3.8245299999999998E-5</v>
       </c>
       <c r="K196" s="1">
@@ -18368,7 +18353,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -18412,7 +18397,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
+      <c r="A198" s="54"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -18456,7 +18441,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
+      <c r="A199" s="54"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -18500,7 +18485,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -18544,7 +18529,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -18557,7 +18542,7 @@
       <c r="E201" s="14">
         <v>0.77429499999999996</v>
       </c>
-      <c r="F201" s="64">
+      <c r="F201" s="41">
         <v>5.89393E-5</v>
       </c>
       <c r="G201" s="1">
@@ -18588,7 +18573,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="42"/>
+      <c r="A202" s="57"/>
       <c r="B202" s="21">
         <v>100</v>
       </c>
@@ -18598,7 +18583,7 @@
       <c r="D202" s="23">
         <v>-0.72991399999999995</v>
       </c>
-      <c r="E202" s="67">
+      <c r="E202" s="44">
         <v>-5.2787300000000002E-5</v>
       </c>
       <c r="F202" s="21">
@@ -18632,7 +18617,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="41">
+      <c r="A203" s="56">
         <v>0.01</v>
       </c>
       <c r="B203" s="16">
@@ -18663,7 +18648,7 @@
       <c r="J203" s="20">
         <v>-0.81252400000000002</v>
       </c>
-      <c r="K203" s="69">
+      <c r="K203" s="46">
         <v>-2.4470699999999999E-5</v>
       </c>
       <c r="L203" s="16">
@@ -18678,7 +18663,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -18722,7 +18707,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -18766,7 +18751,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -18810,7 +18795,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -18823,7 +18808,7 @@
       <c r="E207" s="14">
         <v>0.77503500000000003</v>
       </c>
-      <c r="F207" s="64">
+      <c r="F207" s="41">
         <v>-9.4767700000000004E-5</v>
       </c>
       <c r="G207" s="1">
@@ -18854,7 +18839,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -18898,7 +18883,7 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -18942,7 +18927,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -18986,7 +18971,7 @@
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -19030,7 +19015,7 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -19074,7 +19059,7 @@
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
+      <c r="A213" s="54"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -19090,7 +19075,7 @@
       <c r="F213" s="1">
         <v>-1.08025E-4</v>
       </c>
-      <c r="G213" s="64">
+      <c r="G213" s="41">
         <v>1.9742399999999999E-5</v>
       </c>
       <c r="H213" s="1">
@@ -19118,7 +19103,7 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
+      <c r="A214" s="54"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -19162,7 +19147,7 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
+      <c r="A215" s="54"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -19178,7 +19163,7 @@
       <c r="F215" s="1">
         <v>-9.1394499999999999E-4</v>
       </c>
-      <c r="G215" s="64">
+      <c r="G215" s="41">
         <v>4.9859499999999999E-5</v>
       </c>
       <c r="H215" s="1">
@@ -19206,7 +19191,7 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
+      <c r="A216" s="54"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -19222,7 +19207,7 @@
       <c r="F216" s="1">
         <v>1.76281E-4</v>
       </c>
-      <c r="G216" s="64">
+      <c r="G216" s="41">
         <v>5.2807199999999998E-6</v>
       </c>
       <c r="H216" s="1">
@@ -19250,7 +19235,7 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
+      <c r="A217" s="54"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -19260,7 +19245,7 @@
       <c r="D217" s="12">
         <v>-0.818187</v>
       </c>
-      <c r="E217" s="66">
+      <c r="E217" s="43">
         <v>3.3332199999999999E-5</v>
       </c>
       <c r="F217" s="1">
@@ -19294,7 +19279,7 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -19338,7 +19323,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -19382,7 +19367,7 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -19426,7 +19411,7 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -19470,7 +19455,7 @@
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="39"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -19514,7 +19499,7 @@
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -19558,7 +19543,7 @@
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -19602,7 +19587,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -19646,7 +19631,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -19690,7 +19675,7 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
+      <c r="A227" s="54"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -19706,7 +19691,7 @@
       <c r="F227" s="1">
         <v>-8.4603100000000002E-4</v>
       </c>
-      <c r="G227" s="64">
+      <c r="G227" s="41">
         <v>4.4731499999999997E-5</v>
       </c>
       <c r="H227" s="1">
@@ -19734,7 +19719,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
+      <c r="A228" s="54"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -19778,7 +19763,7 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
+      <c r="A229" s="54"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -19822,7 +19807,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
+      <c r="A230" s="54"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -19866,7 +19851,7 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
+      <c r="A231" s="54"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -19910,7 +19895,7 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
+      <c r="A232" s="54"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -19954,7 +19939,7 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
+      <c r="A233" s="54"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -19970,7 +19955,7 @@
       <c r="F233" s="1">
         <v>-6.4405099999999998E-4</v>
       </c>
-      <c r="G233" s="64">
+      <c r="G233" s="41">
         <v>4.1639900000000001E-5</v>
       </c>
       <c r="H233" s="1">
@@ -19998,7 +19983,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
+      <c r="A234" s="54"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -20014,7 +19999,7 @@
       <c r="F234" s="1">
         <v>-7.0596600000000004E-4</v>
       </c>
-      <c r="G234" s="64">
+      <c r="G234" s="41">
         <v>2.4491600000000001E-5</v>
       </c>
       <c r="H234" s="1">
@@ -20042,7 +20027,7 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
+      <c r="A235" s="54"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -20086,7 +20071,7 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
+      <c r="A236" s="54"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -20130,7 +20115,7 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="39"/>
+      <c r="A237" s="54"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -20174,7 +20159,7 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="39"/>
+      <c r="A238" s="54"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -20218,7 +20203,7 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
+      <c r="A239" s="54"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -20234,7 +20219,7 @@
       <c r="F239" s="1">
         <v>-1.8052500000000001E-4</v>
       </c>
-      <c r="G239" s="64">
+      <c r="G239" s="41">
         <v>7.5053500000000001E-6</v>
       </c>
       <c r="H239" s="1">
@@ -20262,7 +20247,7 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
+      <c r="A240" s="54"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -20306,7 +20291,7 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
+      <c r="A241" s="54"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -20350,7 +20335,7 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="39"/>
+      <c r="A242" s="54"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -20366,7 +20351,7 @@
       <c r="F242" s="1">
         <v>5.2620900000000003E-4</v>
       </c>
-      <c r="G242" s="64">
+      <c r="G242" s="41">
         <v>1.83905E-5</v>
       </c>
       <c r="H242" s="1">
@@ -20376,7 +20361,7 @@
         <f t="shared" si="6"/>
         <v>TAK</v>
       </c>
-      <c r="J242" s="66">
+      <c r="J242" s="43">
         <v>2.3465400000000001E-5</v>
       </c>
       <c r="K242" s="1">
@@ -20394,7 +20379,7 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243" s="39"/>
+      <c r="A243" s="54"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -20438,7 +20423,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -20482,7 +20467,7 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
+      <c r="A245" s="54"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -20526,7 +20511,7 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
+      <c r="A246" s="54"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -20570,7 +20555,7 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A247" s="39"/>
+      <c r="A247" s="54"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -20586,7 +20571,7 @@
       <c r="F247" s="1">
         <v>-8.2126300000000003E-4</v>
       </c>
-      <c r="G247" s="64">
+      <c r="G247" s="41">
         <v>2.8401199999999998E-5</v>
       </c>
       <c r="H247" s="1">
@@ -20614,7 +20599,7 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248" s="39"/>
+      <c r="A248" s="54"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -20658,7 +20643,7 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
+      <c r="A249" s="54"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -20702,7 +20687,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
+      <c r="A250" s="54"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -20746,7 +20731,7 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
+      <c r="A251" s="54"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -20790,7 +20775,7 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="39"/>
+      <c r="A252" s="54"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -20834,7 +20819,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253" s="39"/>
+      <c r="A253" s="54"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -20878,7 +20863,7 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
+      <c r="A254" s="54"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -20922,7 +20907,7 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
+      <c r="A255" s="54"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -20966,7 +20951,7 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
+      <c r="A256" s="54"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -21010,7 +20995,7 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257" s="39"/>
+      <c r="A257" s="54"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -21020,7 +21005,7 @@
       <c r="D257" s="12">
         <v>-0.97463100000000003</v>
       </c>
-      <c r="E257" s="66">
+      <c r="E257" s="43">
         <v>-4.3446399999999998E-5</v>
       </c>
       <c r="F257" s="1">
@@ -21054,7 +21039,7 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258" s="39"/>
+      <c r="A258" s="54"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -21098,7 +21083,7 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
+      <c r="A259" s="54"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -21142,7 +21127,7 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
+      <c r="A260" s="54"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -21186,7 +21171,7 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
+      <c r="A261" s="54"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -21230,7 +21215,7 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262" s="39"/>
+      <c r="A262" s="54"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -21274,7 +21259,7 @@
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A263" s="39"/>
+      <c r="A263" s="54"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -21284,7 +21269,7 @@
       <c r="D263" s="12">
         <v>0.96798899999999999</v>
       </c>
-      <c r="E263" s="66">
+      <c r="E263" s="43">
         <v>4.1268399999999999E-5</v>
       </c>
       <c r="F263" s="1">
@@ -21318,7 +21303,7 @@
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
+      <c r="A264" s="54"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -21362,7 +21347,7 @@
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
+      <c r="A265" s="54"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -21375,10 +21360,10 @@
       <c r="E265" s="14">
         <v>2.6586200000000001E-4</v>
       </c>
-      <c r="F265" s="64">
+      <c r="F265" s="41">
         <v>8.0624000000000006E-5</v>
       </c>
-      <c r="G265" s="64">
+      <c r="G265" s="41">
         <v>2.4577000000000002E-6</v>
       </c>
       <c r="H265" s="1">
@@ -21406,7 +21391,7 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
+      <c r="A266" s="54"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -21435,7 +21420,7 @@
       <c r="J266" s="14">
         <v>-0.78210800000000003</v>
       </c>
-      <c r="K266" s="64">
+      <c r="K266" s="41">
         <v>-8.1124600000000006E-5</v>
       </c>
       <c r="L266" s="1">
@@ -21450,7 +21435,7 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
+      <c r="A267" s="54"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -21494,7 +21479,7 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268" s="39"/>
+      <c r="A268" s="54"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -21538,7 +21523,7 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
+      <c r="A269" s="54"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -21582,7 +21567,7 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
+      <c r="A270" s="54"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -21626,7 +21611,7 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
+      <c r="A271" s="54"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -21670,7 +21655,7 @@
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272" s="39"/>
+      <c r="A272" s="54"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -21714,7 +21699,7 @@
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
+      <c r="A273" s="54"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -21758,7 +21743,7 @@
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
+      <c r="A274" s="54"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -21787,7 +21772,7 @@
       <c r="J274" s="14">
         <v>-0.77472200000000002</v>
       </c>
-      <c r="K274" s="64">
+      <c r="K274" s="41">
         <v>-1.98983E-6</v>
       </c>
       <c r="L274" s="1">
@@ -21802,7 +21787,7 @@
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
+      <c r="A275" s="54"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -21828,7 +21813,7 @@
         <f t="shared" si="8"/>
         <v>NIE</v>
       </c>
-      <c r="J275" s="66">
+      <c r="J275" s="43">
         <v>1.5893199999999999E-5</v>
       </c>
       <c r="K275" s="1">
@@ -21846,7 +21831,7 @@
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
+      <c r="A276" s="54"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -21872,7 +21857,7 @@
         <f t="shared" si="8"/>
         <v>NIE</v>
       </c>
-      <c r="J276" s="66">
+      <c r="J276" s="43">
         <v>-4.70663E-5</v>
       </c>
       <c r="K276" s="1">
@@ -21890,7 +21875,7 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277" s="39"/>
+      <c r="A277" s="54"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -21934,7 +21919,7 @@
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A278" s="39"/>
+      <c r="A278" s="54"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -21978,7 +21963,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A279" s="39"/>
+      <c r="A279" s="54"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -22022,7 +22007,7 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A280" s="39"/>
+      <c r="A280" s="54"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -22066,7 +22051,7 @@
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A281" s="39"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -22110,7 +22095,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282" s="39"/>
+      <c r="A282" s="54"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -22126,7 +22111,7 @@
       <c r="F282" s="1">
         <v>-7.51163E-4</v>
       </c>
-      <c r="G282" s="64">
+      <c r="G282" s="41">
         <v>2.4595499999999999E-5</v>
       </c>
       <c r="H282" s="1">
@@ -22154,7 +22139,7 @@
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A283" s="39"/>
+      <c r="A283" s="54"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -22198,7 +22183,7 @@
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A284" s="39"/>
+      <c r="A284" s="54"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -22242,7 +22227,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285" s="39"/>
+      <c r="A285" s="54"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -22286,7 +22271,7 @@
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A286" s="39"/>
+      <c r="A286" s="54"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -22330,7 +22315,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A287" s="39"/>
+      <c r="A287" s="54"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -22374,7 +22359,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A288" s="39"/>
+      <c r="A288" s="54"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -22418,7 +22403,7 @@
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A289" s="39"/>
+      <c r="A289" s="54"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -22462,7 +22447,7 @@
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A290" s="39"/>
+      <c r="A290" s="54"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -22506,7 +22491,7 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A291" s="39"/>
+      <c r="A291" s="54"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -22550,7 +22535,7 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A292" s="39"/>
+      <c r="A292" s="54"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -22566,7 +22551,7 @@
       <c r="F292" s="1">
         <v>2.2997100000000001E-4</v>
       </c>
-      <c r="G292" s="64">
+      <c r="G292" s="41">
         <v>2.2720900000000001E-5</v>
       </c>
       <c r="H292" s="1">
@@ -22594,7 +22579,7 @@
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A293" s="39"/>
+      <c r="A293" s="54"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -22638,7 +22623,7 @@
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A294" s="39"/>
+      <c r="A294" s="54"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -22682,7 +22667,7 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="39"/>
+      <c r="A295" s="54"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -22726,7 +22711,7 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A296" s="39"/>
+      <c r="A296" s="54"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -22770,7 +22755,7 @@
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
+      <c r="A297" s="54"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -22814,7 +22799,7 @@
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A298" s="39"/>
+      <c r="A298" s="54"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -22858,7 +22843,7 @@
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A299" s="39"/>
+      <c r="A299" s="54"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -22902,7 +22887,7 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="39"/>
+      <c r="A300" s="54"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -22946,7 +22931,7 @@
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A301" s="39"/>
+      <c r="A301" s="54"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -22990,7 +22975,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+      <c r="A302" s="55"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -23019,7 +23004,7 @@
       <c r="J302" s="15">
         <v>-0.77819000000000005</v>
       </c>
-      <c r="K302" s="70">
+      <c r="K302" s="47">
         <v>1.0951899999999999E-5</v>
       </c>
       <c r="L302" s="3">
@@ -23064,59 +23049,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="43" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+      <c r="A3" s="48">
         <v>1E-3</v>
       </c>
       <c r="B3" s="20">
@@ -23161,7 +23146,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+      <c r="A4" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B4" s="14">
@@ -23206,7 +23191,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73">
+      <c r="A5" s="50">
         <v>0.01</v>
       </c>
       <c r="B5" s="15">
@@ -23265,8 +23250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23276,30 +23261,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -23307,11 +23292,11 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>94</v>
+      <c r="B3" s="20">
+        <v>-0.18637500000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-0.368641</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>21</v>
@@ -23324,11 +23309,11 @@
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>96</v>
+      <c r="B4" s="14">
+        <v>-0.18437500000000001</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-0.36664099999999999</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>23</v>
@@ -23341,11 +23326,11 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>96</v>
+      <c r="B5" s="52">
+        <v>-0.18137500000000001</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-0.36364099999999999</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>25</v>
@@ -23358,11 +23343,11 @@
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>96</v>
+      <c r="B6" s="52">
+        <v>-0.177375</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-0.35964099999999999</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>27</v>
@@ -23375,8 +23360,12 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="14">
+        <v>-0.172375</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-0.35464099999999998</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
@@ -23388,8 +23377,12 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14">
+        <v>-0.166375</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-0.34864099999999998</v>
+      </c>
       <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
@@ -23401,8 +23394,12 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14">
+        <v>-0.15937499999999999</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-0.34164099999999997</v>
+      </c>
       <c r="D9" s="14" t="s">
         <v>33</v>
       </c>
@@ -23414,8 +23411,12 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14">
+        <v>-0.15137500000000001</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-0.33364100000000002</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>33</v>
       </c>
@@ -23427,8 +23428,12 @@
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14">
+        <v>-0.142375</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-0.32464100000000001</v>
+      </c>
       <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
@@ -23440,8 +23445,12 @@
       <c r="A12" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="14">
+        <v>-0.13237499999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-0.314641</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>36</v>
       </c>
@@ -23453,8 +23462,12 @@
       <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14">
+        <v>-0.121375</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.30364099999999999</v>
+      </c>
       <c r="D13" s="14" t="s">
         <v>38</v>
       </c>
@@ -23466,8 +23479,12 @@
       <c r="A14" s="29">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="14">
+        <v>-0.109375</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-0.29164099999999998</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
@@ -23479,8 +23496,12 @@
       <c r="A15" s="29">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="14">
+        <v>-9.6375000000000002E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-0.27864100000000003</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
@@ -23492,8 +23513,12 @@
       <c r="A16" s="29">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="14">
+        <v>-8.2375000000000004E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-0.26464100000000002</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>44</v>
       </c>
@@ -23505,8 +23530,12 @@
       <c r="A17" s="29">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="14">
+        <v>-6.7375000000000004E-2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-0.249641</v>
+      </c>
       <c r="D17" s="14" t="s">
         <v>46</v>
       </c>
@@ -23518,8 +23547,12 @@
       <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="14">
+        <v>-5.1374999999999997E-2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-0.23364099999999999</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>48</v>
       </c>
@@ -23531,8 +23564,12 @@
       <c r="A19" s="29">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14">
+        <v>-3.4375000000000003E-2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-0.216641</v>
+      </c>
       <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
@@ -23544,8 +23581,12 @@
       <c r="A20" s="29">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="14">
+        <v>-1.6375000000000001E-2</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-0.19864100000000001</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>52</v>
       </c>
@@ -23557,8 +23598,12 @@
       <c r="A21" s="29">
         <v>19</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="14">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-0.179641</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>54</v>
       </c>
@@ -23570,8 +23615,12 @@
       <c r="A22" s="29">
         <v>20</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="14">
+        <v>1.6625000000000001E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>-0.15964100000000001</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>54</v>
       </c>
@@ -23583,8 +23632,12 @@
       <c r="A23" s="29">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14">
+        <v>3.1625E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-0.13864099999999999</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>56</v>
       </c>
@@ -23596,8 +23649,12 @@
       <c r="A24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="14">
+        <v>4.5624999999999999E-2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-0.11664099999999999</v>
+      </c>
       <c r="D24" s="14" t="s">
         <v>58</v>
       </c>
@@ -23609,8 +23666,12 @@
       <c r="A25" s="29">
         <v>23</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="14">
+        <v>5.8624999999999997E-2</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-9.3641000000000002E-2</v>
+      </c>
       <c r="D25" s="14" t="s">
         <v>60</v>
       </c>
@@ -23622,8 +23683,12 @@
       <c r="A26" s="29">
         <v>24</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="14">
+        <v>7.0624999999999993E-2</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-6.9640999999999995E-2</v>
+      </c>
       <c r="D26" s="14" t="s">
         <v>62</v>
       </c>
@@ -23635,8 +23700,12 @@
       <c r="A27" s="29">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="14">
+        <v>8.1625000000000003E-2</v>
+      </c>
+      <c r="C27" s="12">
+        <v>-4.4641E-2</v>
+      </c>
       <c r="D27" s="14" t="s">
         <v>64</v>
       </c>
@@ -23648,8 +23717,12 @@
       <c r="A28" s="29">
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="14">
+        <v>9.1624999999999998E-2</v>
+      </c>
+      <c r="C28" s="12">
+        <v>-1.8641000000000001E-2</v>
+      </c>
       <c r="D28" s="14" t="s">
         <v>66</v>
       </c>
@@ -23661,8 +23734,12 @@
       <c r="A29" s="29">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="14">
+        <v>9.0624999999999997E-2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-1.7641E-2</v>
+      </c>
       <c r="D29" s="14" t="s">
         <v>68</v>
       </c>
@@ -23674,8 +23751,12 @@
       <c r="A30" s="29">
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="14">
+        <v>8.8624999999999995E-2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-1.5640999999999999E-2</v>
+      </c>
       <c r="D30" s="14" t="s">
         <v>70</v>
       </c>
@@ -23687,8 +23768,12 @@
       <c r="A31" s="29">
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="14">
+        <v>8.5625000000000007E-2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-1.2640999999999999E-2</v>
+      </c>
       <c r="D31" s="14" t="s">
         <v>72</v>
       </c>
@@ -23700,8 +23785,12 @@
       <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="14">
+        <v>8.1625000000000003E-2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-8.6409999999999994E-3</v>
+      </c>
       <c r="D32" s="14" t="s">
         <v>74</v>
       </c>
@@ -23713,8 +23802,12 @@
       <c r="A33" s="29">
         <v>31</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14">
+        <v>7.6624999999999999E-2</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-3.6410000000000001E-3</v>
+      </c>
       <c r="D33" s="14" t="s">
         <v>76</v>
       </c>
@@ -23726,8 +23819,12 @@
       <c r="A34" s="29">
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="14">
+        <v>7.0624999999999993E-2</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3.59E-4</v>
+      </c>
       <c r="D34" s="14" t="s">
         <v>78</v>
       </c>
@@ -23739,8 +23836,12 @@
       <c r="A35" s="29">
         <v>33</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="14">
+        <v>6.3625000000000001E-2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3.359E-3</v>
+      </c>
       <c r="D35" s="14" t="s">
         <v>80</v>
       </c>
@@ -23752,8 +23853,12 @@
       <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="14">
+        <v>5.5625000000000001E-2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>5.359E-3</v>
+      </c>
       <c r="D36" s="14" t="s">
         <v>82</v>
       </c>
@@ -23765,8 +23870,12 @@
       <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="14">
+        <v>4.6625E-2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>6.3590000000000001E-3</v>
+      </c>
       <c r="D37" s="14" t="s">
         <v>84</v>
       </c>
@@ -23778,8 +23887,12 @@
       <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="14">
+        <v>3.6624999999999998E-2</v>
+      </c>
+      <c r="C38" s="12">
+        <v>6.3590000000000001E-3</v>
+      </c>
       <c r="D38" s="14" t="s">
         <v>86</v>
       </c>
@@ -23791,8 +23904,12 @@
       <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="14">
+        <v>2.5624999999999998E-2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>5.359E-3</v>
+      </c>
       <c r="D39" s="14" t="s">
         <v>88</v>
       </c>
@@ -23804,8 +23921,12 @@
       <c r="A40" s="29">
         <v>38</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="14">
+        <v>1.3625E-2</v>
+      </c>
+      <c r="C40" s="12">
+        <v>3.359E-3</v>
+      </c>
       <c r="D40" s="14" t="s">
         <v>90</v>
       </c>
@@ -23817,8 +23938,12 @@
       <c r="A41" s="29">
         <v>39</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="14">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3.59E-4</v>
+      </c>
       <c r="D41" s="14" t="s">
         <v>90</v>
       </c>
@@ -23827,11 +23952,15 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75">
+      <c r="A42" s="51">
         <v>40</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="15">
+        <v>-3.7500000000000001E-4</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3.59E-4</v>
+      </c>
       <c r="D42" s="15" t="s">
         <v>90</v>
       </c>
@@ -30933,24 +31062,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
@@ -31011,20 +31140,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="59"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
